--- a/relatorios/repasses_liberados/dentistas/10261206400/2023-08-25_relatorio_repasses_10261206400.xlsx
+++ b/relatorios/repasses_liberados/dentistas/10261206400/2023-08-25_relatorio_repasses_10261206400.xlsx
@@ -18094,7 +18094,7 @@
         <v>0</v>
       </c>
       <c r="M380">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N380">
         <v>0</v>
@@ -18182,7 +18182,7 @@
         <v>0</v>
       </c>
       <c r="M382">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N382">
         <v>0</v>
@@ -18446,7 +18446,7 @@
         <v>0</v>
       </c>
       <c r="M388">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N388">
         <v>0</v>
@@ -18490,7 +18490,7 @@
         <v>0</v>
       </c>
       <c r="M389">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N389">
         <v>0</v>
@@ -18622,7 +18622,7 @@
         <v>0</v>
       </c>
       <c r="M392">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N392">
         <v>0</v>
@@ -18710,7 +18710,7 @@
         <v>0</v>
       </c>
       <c r="M394">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N394">
         <v>0</v>
@@ -19106,7 +19106,7 @@
         <v>0</v>
       </c>
       <c r="M403">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N403">
         <v>0</v>
@@ -19546,7 +19546,7 @@
         <v>0</v>
       </c>
       <c r="M413">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N413">
         <v>0</v>
@@ -19590,7 +19590,7 @@
         <v>0</v>
       </c>
       <c r="M414">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N414">
         <v>0</v>
@@ -20382,7 +20382,7 @@
         <v>0</v>
       </c>
       <c r="M432">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N432">
         <v>0</v>
@@ -20426,7 +20426,7 @@
         <v>0</v>
       </c>
       <c r="M433">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N433">
         <v>0</v>
@@ -21394,7 +21394,7 @@
         <v>0</v>
       </c>
       <c r="M455">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N455">
         <v>0</v>
@@ -21966,7 +21966,7 @@
         <v>0</v>
       </c>
       <c r="M468">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N468">
         <v>0</v>
@@ -22406,7 +22406,7 @@
         <v>0</v>
       </c>
       <c r="M478">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N478">
         <v>0</v>
@@ -22494,7 +22494,7 @@
         <v>0</v>
       </c>
       <c r="M480">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N480">
         <v>0</v>
@@ -22538,7 +22538,7 @@
         <v>0</v>
       </c>
       <c r="M481">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N481">
         <v>0</v>
@@ -23462,7 +23462,7 @@
         <v>0</v>
       </c>
       <c r="M502">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N502">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="M513">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N513">
         <v>0</v>
@@ -24474,7 +24474,7 @@
         <v>0</v>
       </c>
       <c r="M525">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N525">
         <v>0</v>
@@ -24518,7 +24518,7 @@
         <v>0</v>
       </c>
       <c r="M526">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N526">
         <v>0</v>
@@ -25310,7 +25310,7 @@
         <v>0</v>
       </c>
       <c r="M544">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N544">
         <v>0</v>
@@ -25398,7 +25398,7 @@
         <v>0</v>
       </c>
       <c r="M546">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N546">
         <v>0</v>
@@ -25574,10 +25574,10 @@
         <v>0.657143</v>
       </c>
       <c r="M550">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N550">
-        <v>48.36572480000001</v>
+        <v>36.2742936</v>
       </c>
     </row>
     <row r="551" spans="1:14">
@@ -25662,10 +25662,10 @@
         <v>0.178571</v>
       </c>
       <c r="M552">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N552">
-        <v>2.678565</v>
+        <v>3.57142</v>
       </c>
     </row>
     <row r="553" spans="1:14">
@@ -26014,7 +26014,7 @@
         <v>0</v>
       </c>
       <c r="M560">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N560">
         <v>0</v>
@@ -26058,7 +26058,7 @@
         <v>0</v>
       </c>
       <c r="M561">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N561">
         <v>0</v>
@@ -26586,7 +26586,7 @@
         <v>0</v>
       </c>
       <c r="M573">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N573">
         <v>0</v>
@@ -27158,7 +27158,7 @@
         <v>0</v>
       </c>
       <c r="M586">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N586">
         <v>0</v>
@@ -27202,7 +27202,7 @@
         <v>0</v>
       </c>
       <c r="M587">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N587">
         <v>0</v>
@@ -27510,7 +27510,7 @@
         <v>0</v>
       </c>
       <c r="M594">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N594">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="M595">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N595">
         <v>0</v>
@@ -27642,7 +27642,7 @@
         <v>0</v>
       </c>
       <c r="M597">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N597">
         <v>0</v>
@@ -27686,7 +27686,7 @@
         <v>0</v>
       </c>
       <c r="M598">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N598">
         <v>0</v>
@@ -27730,7 +27730,7 @@
         <v>0</v>
       </c>
       <c r="M599">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N599">
         <v>0</v>
@@ -28654,7 +28654,7 @@
         <v>0</v>
       </c>
       <c r="M620">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N620">
         <v>0</v>
@@ -28698,7 +28698,7 @@
         <v>0</v>
       </c>
       <c r="M621">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N621">
         <v>0</v>
@@ -29402,7 +29402,7 @@
         <v>0</v>
       </c>
       <c r="M637">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N637">
         <v>0</v>
@@ -29446,7 +29446,7 @@
         <v>0</v>
       </c>
       <c r="M638">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N638">
         <v>0</v>
@@ -29974,7 +29974,7 @@
         <v>0</v>
       </c>
       <c r="M650">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N650">
         <v>0</v>
@@ -30018,7 +30018,7 @@
         <v>0</v>
       </c>
       <c r="M651">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N651">
         <v>0</v>
@@ -30150,7 +30150,7 @@
         <v>0</v>
       </c>
       <c r="M654">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N654">
         <v>0</v>
@@ -30194,7 +30194,7 @@
         <v>0</v>
       </c>
       <c r="M655">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N655">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="M656">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N656">
         <v>0</v>
@@ -30282,7 +30282,7 @@
         <v>0</v>
       </c>
       <c r="M657">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N657">
         <v>0</v>
@@ -33098,7 +33098,7 @@
         <v>0</v>
       </c>
       <c r="M721">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N721">
         <v>0</v>
@@ -33142,7 +33142,7 @@
         <v>0</v>
       </c>
       <c r="M722">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N722">
         <v>0</v>
@@ -33890,7 +33890,7 @@
         <v>0</v>
       </c>
       <c r="M739">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N739">
         <v>0</v>
@@ -34022,7 +34022,7 @@
         <v>0</v>
       </c>
       <c r="M742">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N742">
         <v>0</v>
@@ -34814,7 +34814,7 @@
         <v>0</v>
       </c>
       <c r="M760">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N760">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>0</v>
       </c>
       <c r="M801">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N801">
         <v>0</v>
@@ -36706,7 +36706,7 @@
         <v>0</v>
       </c>
       <c r="M803">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N803">
         <v>0</v>

--- a/relatorios/repasses_liberados/dentistas/10261206400/2023-08-25_relatorio_repasses_10261206400.xlsx
+++ b/relatorios/repasses_liberados/dentistas/10261206400/2023-08-25_relatorio_repasses_10261206400.xlsx
@@ -5818,10 +5818,10 @@
         <v>0</v>
       </c>
       <c r="M101">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N101">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -5862,10 +5862,10 @@
         <v>0</v>
       </c>
       <c r="M102">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N102">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -5906,10 +5906,10 @@
         <v>0</v>
       </c>
       <c r="M103">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N103">
-        <v>10.02</v>
+        <v>7.515</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -5950,10 +5950,10 @@
         <v>0</v>
       </c>
       <c r="M104">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N104">
-        <v>10.02</v>
+        <v>7.515</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -5994,10 +5994,10 @@
         <v>0</v>
       </c>
       <c r="M105">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N105">
-        <v>0.068</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -6038,10 +6038,10 @@
         <v>0</v>
       </c>
       <c r="M106">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N106">
-        <v>0.068</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -6082,10 +6082,10 @@
         <v>0</v>
       </c>
       <c r="M107">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N107">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -6126,10 +6126,10 @@
         <v>0</v>
       </c>
       <c r="M108">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N108">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -6170,10 +6170,10 @@
         <v>0</v>
       </c>
       <c r="M109">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N109">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -6214,10 +6214,10 @@
         <v>0</v>
       </c>
       <c r="M110">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N110">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -6258,10 +6258,10 @@
         <v>0</v>
       </c>
       <c r="M111">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N111">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -6302,10 +6302,10 @@
         <v>0</v>
       </c>
       <c r="M112">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N112">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -6346,10 +6346,10 @@
         <v>0</v>
       </c>
       <c r="M113">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N113">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -6390,10 +6390,10 @@
         <v>0</v>
       </c>
       <c r="M114">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N114">
-        <v>10.748</v>
+        <v>8.061</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -6434,10 +6434,10 @@
         <v>0</v>
       </c>
       <c r="M115">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N115">
-        <v>1.792</v>
+        <v>1.344</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -6478,10 +6478,10 @@
         <v>0</v>
       </c>
       <c r="M116">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N116">
-        <v>17.764</v>
+        <v>13.323</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -6522,10 +6522,10 @@
         <v>0</v>
       </c>
       <c r="M117">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N117">
-        <v>2.14</v>
+        <v>1.605</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -6566,10 +6566,10 @@
         <v>0</v>
       </c>
       <c r="M118">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N118">
-        <v>7.96</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -6610,10 +6610,10 @@
         <v>0</v>
       </c>
       <c r="M119">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N119">
-        <v>18.42</v>
+        <v>13.815</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -6654,10 +6654,10 @@
         <v>0</v>
       </c>
       <c r="M120">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N120">
-        <v>2.14</v>
+        <v>1.605</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -6698,10 +6698,10 @@
         <v>0</v>
       </c>
       <c r="M121">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N121">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -6742,10 +6742,10 @@
         <v>0</v>
       </c>
       <c r="M122">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N122">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -6786,10 +6786,10 @@
         <v>0</v>
       </c>
       <c r="M123">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N123">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -6830,10 +6830,10 @@
         <v>0</v>
       </c>
       <c r="M124">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N124">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -6874,10 +6874,10 @@
         <v>0</v>
       </c>
       <c r="M125">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N125">
-        <v>18.42</v>
+        <v>13.815</v>
       </c>
     </row>
     <row r="126" spans="1:14">
@@ -6918,10 +6918,10 @@
         <v>0</v>
       </c>
       <c r="M126">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N126">
-        <v>2.14</v>
+        <v>1.605</v>
       </c>
     </row>
     <row r="127" spans="1:14">
@@ -6962,10 +6962,10 @@
         <v>0</v>
       </c>
       <c r="M127">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N127">
-        <v>7.96</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -7050,10 +7050,10 @@
         <v>0</v>
       </c>
       <c r="M129">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N129">
-        <v>2.14</v>
+        <v>1.605</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -7094,10 +7094,10 @@
         <v>0</v>
       </c>
       <c r="M130">
-        <v>0.4</v>
+        <v>5</v>
       </c>
       <c r="N130">
-        <v>12.8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131" spans="1:14">
@@ -7138,10 +7138,10 @@
         <v>0</v>
       </c>
       <c r="M131">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N131">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:14">
@@ -7182,10 +7182,10 @@
         <v>0</v>
       </c>
       <c r="M132">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N132">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="133" spans="1:14">
@@ -7226,10 +7226,10 @@
         <v>0</v>
       </c>
       <c r="M133">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N133">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="134" spans="1:14">
@@ -7270,10 +7270,10 @@
         <v>0</v>
       </c>
       <c r="M134">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N134">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="135" spans="1:14">
@@ -7314,10 +7314,10 @@
         <v>0</v>
       </c>
       <c r="M135">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N135">
-        <v>15.576</v>
+        <v>11.682</v>
       </c>
     </row>
     <row r="136" spans="1:14">
@@ -7402,10 +7402,10 @@
         <v>0</v>
       </c>
       <c r="M137">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N137">
-        <v>17.764</v>
+        <v>13.323</v>
       </c>
     </row>
     <row r="138" spans="1:14">
@@ -7490,10 +7490,10 @@
         <v>0</v>
       </c>
       <c r="M139">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N139">
-        <v>12.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:14">
@@ -7534,10 +7534,10 @@
         <v>0</v>
       </c>
       <c r="M140">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N140">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="141" spans="1:14">
@@ -7578,10 +7578,10 @@
         <v>0</v>
       </c>
       <c r="M141">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N141">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="142" spans="1:14">
@@ -7622,10 +7622,10 @@
         <v>0</v>
       </c>
       <c r="M142">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N142">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="143" spans="1:14">
@@ -7666,10 +7666,10 @@
         <v>0</v>
       </c>
       <c r="M143">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N143">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="144" spans="1:14">
@@ -7710,10 +7710,10 @@
         <v>0</v>
       </c>
       <c r="M144">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N144">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="145" spans="1:14">
@@ -7754,10 +7754,10 @@
         <v>0</v>
       </c>
       <c r="M145">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N145">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="146" spans="1:14">
@@ -7798,10 +7798,10 @@
         <v>0</v>
       </c>
       <c r="M146">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N146">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="147" spans="1:14">
@@ -7842,10 +7842,10 @@
         <v>0</v>
       </c>
       <c r="M147">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N147">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148" spans="1:14">
@@ -7886,10 +7886,10 @@
         <v>0</v>
       </c>
       <c r="M148">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N148">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="149" spans="1:14">
@@ -7930,10 +7930,10 @@
         <v>0</v>
       </c>
       <c r="M149">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N149">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="150" spans="1:14">
@@ -7974,10 +7974,10 @@
         <v>0</v>
       </c>
       <c r="M150">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N150">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="151" spans="1:14">
@@ -8018,10 +8018,10 @@
         <v>0</v>
       </c>
       <c r="M151">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N151">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152" spans="1:14">
@@ -8062,10 +8062,10 @@
         <v>0</v>
       </c>
       <c r="M152">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N152">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="153" spans="1:14">
@@ -8106,10 +8106,10 @@
         <v>0</v>
       </c>
       <c r="M153">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N153">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="154" spans="1:14">
@@ -8150,10 +8150,10 @@
         <v>0</v>
       </c>
       <c r="M154">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N154">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="155" spans="1:14">
@@ -8194,10 +8194,10 @@
         <v>0</v>
       </c>
       <c r="M155">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N155">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="156" spans="1:14">
@@ -8238,10 +8238,10 @@
         <v>0</v>
       </c>
       <c r="M156">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N156">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="157" spans="1:14">
@@ -8282,10 +8282,10 @@
         <v>0</v>
       </c>
       <c r="M157">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N157">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="158" spans="1:14">
@@ -8326,10 +8326,10 @@
         <v>0</v>
       </c>
       <c r="M158">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N158">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="159" spans="1:14">
@@ -8370,10 +8370,10 @@
         <v>0</v>
       </c>
       <c r="M159">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N159">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="160" spans="1:14">
@@ -8414,10 +8414,10 @@
         <v>0</v>
       </c>
       <c r="M160">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N160">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="161" spans="1:14">
@@ -8458,10 +8458,10 @@
         <v>0</v>
       </c>
       <c r="M161">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N161">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162" spans="1:14">
@@ -8502,10 +8502,10 @@
         <v>0</v>
       </c>
       <c r="M162">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N162">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="163" spans="1:14">
@@ -8546,10 +8546,10 @@
         <v>0</v>
       </c>
       <c r="M163">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N163">
-        <v>16.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:14">
@@ -8590,10 +8590,10 @@
         <v>0</v>
       </c>
       <c r="M164">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N164">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="165" spans="1:14">
@@ -8634,10 +8634,10 @@
         <v>0</v>
       </c>
       <c r="M165">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N165">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="166" spans="1:14">
@@ -8678,10 +8678,10 @@
         <v>0</v>
       </c>
       <c r="M166">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N166">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="167" spans="1:14">
@@ -8722,10 +8722,10 @@
         <v>0</v>
       </c>
       <c r="M167">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N167">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="168" spans="1:14">
@@ -8766,10 +8766,10 @@
         <v>0</v>
       </c>
       <c r="M168">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N168">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="169" spans="1:14">
@@ -8810,10 +8810,10 @@
         <v>0</v>
       </c>
       <c r="M169">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N169">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="170" spans="1:14">
@@ -8854,10 +8854,10 @@
         <v>0</v>
       </c>
       <c r="M170">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N170">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="171" spans="1:14">
@@ -8898,10 +8898,10 @@
         <v>0</v>
       </c>
       <c r="M171">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N171">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="172" spans="1:14">
@@ -8942,10 +8942,10 @@
         <v>0</v>
       </c>
       <c r="M172">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N172">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173" spans="1:14">
@@ -8986,10 +8986,10 @@
         <v>0</v>
       </c>
       <c r="M173">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N173">
-        <v>18.42</v>
+        <v>13.815</v>
       </c>
     </row>
     <row r="174" spans="1:14">
@@ -9030,10 +9030,10 @@
         <v>0</v>
       </c>
       <c r="M174">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N174">
-        <v>2.14</v>
+        <v>1.605</v>
       </c>
     </row>
     <row r="175" spans="1:14">
@@ -9074,10 +9074,10 @@
         <v>0</v>
       </c>
       <c r="M175">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N175">
-        <v>7.96</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="176" spans="1:14">
@@ -9118,10 +9118,10 @@
         <v>0</v>
       </c>
       <c r="M176">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N176">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="177" spans="1:14">
@@ -9162,10 +9162,10 @@
         <v>0</v>
       </c>
       <c r="M177">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N177">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="178" spans="1:14">
@@ -9206,10 +9206,10 @@
         <v>0</v>
       </c>
       <c r="M178">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N178">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="179" spans="1:14">
@@ -9250,10 +9250,10 @@
         <v>0</v>
       </c>
       <c r="M179">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N179">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="180" spans="1:14">
@@ -9294,10 +9294,10 @@
         <v>0</v>
       </c>
       <c r="M180">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N180">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="181" spans="1:14">
@@ -9338,10 +9338,10 @@
         <v>0</v>
       </c>
       <c r="M181">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N181">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="182" spans="1:14">
@@ -9382,10 +9382,10 @@
         <v>0</v>
       </c>
       <c r="M182">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N182">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="183" spans="1:14">
@@ -9426,10 +9426,10 @@
         <v>0</v>
       </c>
       <c r="M183">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N183">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="184" spans="1:14">
@@ -9470,10 +9470,10 @@
         <v>0</v>
       </c>
       <c r="M184">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N184">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="185" spans="1:14">
@@ -9514,10 +9514,10 @@
         <v>0</v>
       </c>
       <c r="M185">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N185">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="186" spans="1:14">
@@ -9558,10 +9558,10 @@
         <v>0</v>
       </c>
       <c r="M186">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N186">
-        <v>16.5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="187" spans="1:14">
@@ -9602,10 +9602,10 @@
         <v>0</v>
       </c>
       <c r="M187">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N187">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="188" spans="1:14">
@@ -9646,10 +9646,10 @@
         <v>0</v>
       </c>
       <c r="M188">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N188">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="189" spans="1:14">
@@ -9690,10 +9690,10 @@
         <v>0</v>
       </c>
       <c r="M189">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N189">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="190" spans="1:14">
@@ -9734,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="M190">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N190">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="191" spans="1:14">
@@ -9778,10 +9778,10 @@
         <v>0</v>
       </c>
       <c r="M191">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N191">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:14">
@@ -9910,10 +9910,10 @@
         <v>0</v>
       </c>
       <c r="M194">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N194">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="195" spans="1:14">
@@ -9998,10 +9998,10 @@
         <v>0</v>
       </c>
       <c r="M196">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N196">
-        <v>17.764</v>
+        <v>13.323</v>
       </c>
     </row>
     <row r="197" spans="1:14">
@@ -10042,10 +10042,10 @@
         <v>0</v>
       </c>
       <c r="M197">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N197">
-        <v>2.14</v>
+        <v>1.605</v>
       </c>
     </row>
     <row r="198" spans="1:14">
@@ -10130,10 +10130,10 @@
         <v>0</v>
       </c>
       <c r="M199">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N199">
-        <v>13.948</v>
+        <v>10.461</v>
       </c>
     </row>
     <row r="200" spans="1:14">
@@ -10218,10 +10218,10 @@
         <v>0</v>
       </c>
       <c r="M201">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N201">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202" spans="1:14">
@@ -10262,10 +10262,10 @@
         <v>0</v>
       </c>
       <c r="M202">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="N202">
-        <v>2.64</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="203" spans="1:14">
@@ -10306,10 +10306,10 @@
         <v>0</v>
       </c>
       <c r="M203">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N203">
-        <v>13.948</v>
+        <v>10.461</v>
       </c>
     </row>
     <row r="204" spans="1:14">
@@ -10350,10 +10350,10 @@
         <v>0</v>
       </c>
       <c r="M204">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N204">
-        <v>0.068</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="205" spans="1:14">
@@ -10438,10 +10438,10 @@
         <v>0</v>
       </c>
       <c r="M206">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N206">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="207" spans="1:14">
@@ -10482,10 +10482,10 @@
         <v>0</v>
       </c>
       <c r="M207">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N207">
-        <v>15.576</v>
+        <v>11.682</v>
       </c>
     </row>
     <row r="208" spans="1:14">
@@ -10526,10 +10526,10 @@
         <v>0</v>
       </c>
       <c r="M208">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N208">
-        <v>15.576</v>
+        <v>11.682</v>
       </c>
     </row>
     <row r="209" spans="1:14">
@@ -10570,10 +10570,10 @@
         <v>0</v>
       </c>
       <c r="M209">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N209">
-        <v>2.376</v>
+        <v>1.782</v>
       </c>
     </row>
     <row r="210" spans="1:14">
@@ -10614,10 +10614,10 @@
         <v>0</v>
       </c>
       <c r="M210">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N210">
-        <v>2.376</v>
+        <v>1.782</v>
       </c>
     </row>
     <row r="211" spans="1:14">
@@ -10658,10 +10658,10 @@
         <v>0</v>
       </c>
       <c r="M211">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N211">
-        <v>10.748</v>
+        <v>8.061</v>
       </c>
     </row>
     <row r="212" spans="1:14">
@@ -10702,10 +10702,10 @@
         <v>0</v>
       </c>
       <c r="M212">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N212">
-        <v>1.792</v>
+        <v>1.344</v>
       </c>
     </row>
     <row r="213" spans="1:14">
@@ -10834,10 +10834,10 @@
         <v>0</v>
       </c>
       <c r="M215">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N215">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="216" spans="1:14">
@@ -10878,10 +10878,10 @@
         <v>0</v>
       </c>
       <c r="M216">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N216">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="217" spans="1:14">
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="M217">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N217">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="218" spans="1:14">
@@ -10966,10 +10966,10 @@
         <v>0</v>
       </c>
       <c r="M218">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N218">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="219" spans="1:14">
@@ -11142,10 +11142,10 @@
         <v>0</v>
       </c>
       <c r="M222">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N222">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="223" spans="1:14">
@@ -11186,10 +11186,10 @@
         <v>0</v>
       </c>
       <c r="M223">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N223">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="224" spans="1:14">
@@ -11230,10 +11230,10 @@
         <v>0</v>
       </c>
       <c r="M224">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N224">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="225" spans="1:14">
@@ -11274,10 +11274,10 @@
         <v>0</v>
       </c>
       <c r="M225">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N225">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="226" spans="1:14">
@@ -11318,10 +11318,10 @@
         <v>0</v>
       </c>
       <c r="M226">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N226">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="227" spans="1:14">
@@ -11362,10 +11362,10 @@
         <v>0</v>
       </c>
       <c r="M227">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N227">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="228" spans="1:14">
@@ -11406,10 +11406,10 @@
         <v>0</v>
       </c>
       <c r="M228">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N228">
-        <v>16.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:14">
@@ -11450,10 +11450,10 @@
         <v>0</v>
       </c>
       <c r="M229">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N229">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="230" spans="1:14">
@@ -11494,10 +11494,10 @@
         <v>0</v>
       </c>
       <c r="M230">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N230">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="231" spans="1:14">
@@ -11538,10 +11538,10 @@
         <v>0</v>
       </c>
       <c r="M231">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N231">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="232" spans="1:14">
@@ -11582,10 +11582,10 @@
         <v>0</v>
       </c>
       <c r="M232">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N232">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="233" spans="1:14">
@@ -11626,10 +11626,10 @@
         <v>0</v>
       </c>
       <c r="M233">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N233">
-        <v>17.764</v>
+        <v>13.323</v>
       </c>
     </row>
     <row r="234" spans="1:14">
@@ -11670,10 +11670,10 @@
         <v>0</v>
       </c>
       <c r="M234">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N234">
-        <v>17.764</v>
+        <v>13.323</v>
       </c>
     </row>
     <row r="235" spans="1:14">
@@ -11802,10 +11802,10 @@
         <v>0</v>
       </c>
       <c r="M237">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N237">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="238" spans="1:14">
@@ -11846,10 +11846,10 @@
         <v>0</v>
       </c>
       <c r="M238">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N238">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="239" spans="1:14">
@@ -11890,10 +11890,10 @@
         <v>0</v>
       </c>
       <c r="M239">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N239">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="240" spans="1:14">
@@ -11934,10 +11934,10 @@
         <v>0</v>
       </c>
       <c r="M240">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N240">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="241" spans="1:14">
@@ -11978,10 +11978,10 @@
         <v>0</v>
       </c>
       <c r="M241">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N241">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="242" spans="1:14">
@@ -12022,10 +12022,10 @@
         <v>0</v>
       </c>
       <c r="M242">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N242">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="243" spans="1:14">
@@ -12066,10 +12066,10 @@
         <v>0</v>
       </c>
       <c r="M243">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N243">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="244" spans="1:14">
@@ -12110,10 +12110,10 @@
         <v>0</v>
       </c>
       <c r="M244">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N244">
-        <v>18.42</v>
+        <v>13.815</v>
       </c>
     </row>
     <row r="245" spans="1:14">
@@ -12154,10 +12154,10 @@
         <v>0</v>
       </c>
       <c r="M245">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N245">
-        <v>7.96</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="246" spans="1:14">
@@ -12198,10 +12198,10 @@
         <v>0</v>
       </c>
       <c r="M246">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N246">
-        <v>2.14</v>
+        <v>1.605</v>
       </c>
     </row>
     <row r="247" spans="1:14">
@@ -12242,10 +12242,10 @@
         <v>0</v>
       </c>
       <c r="M247">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N247">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="248" spans="1:14">
@@ -12286,10 +12286,10 @@
         <v>0</v>
       </c>
       <c r="M248">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N248">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="249" spans="1:14">
@@ -12330,10 +12330,10 @@
         <v>0</v>
       </c>
       <c r="M249">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N249">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="250" spans="1:14">
@@ -12374,10 +12374,10 @@
         <v>0</v>
       </c>
       <c r="M250">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N250">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="251" spans="1:14">
@@ -12418,10 +12418,10 @@
         <v>0</v>
       </c>
       <c r="M251">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N251">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="252" spans="1:14">
@@ -12462,10 +12462,10 @@
         <v>0</v>
       </c>
       <c r="M252">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N252">
-        <v>10.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:14">
@@ -12506,10 +12506,10 @@
         <v>0</v>
       </c>
       <c r="M253">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N253">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="254" spans="1:14">
@@ -12550,10 +12550,10 @@
         <v>0</v>
       </c>
       <c r="M254">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N254">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="255" spans="1:14">
@@ -12594,10 +12594,10 @@
         <v>0</v>
       </c>
       <c r="M255">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N255">
-        <v>16.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:14">
@@ -12638,10 +12638,10 @@
         <v>0</v>
       </c>
       <c r="M256">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N256">
-        <v>2.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:14">
@@ -12682,10 +12682,10 @@
         <v>0</v>
       </c>
       <c r="M257">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N257">
-        <v>16.5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="258" spans="1:14">
@@ -12726,10 +12726,10 @@
         <v>0</v>
       </c>
       <c r="M258">
-        <v>0.4</v>
+        <v>5</v>
       </c>
       <c r="N258">
-        <v>2.64</v>
+        <v>5</v>
       </c>
     </row>
     <row r="259" spans="1:14">
@@ -12902,10 +12902,10 @@
         <v>0</v>
       </c>
       <c r="M262">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N262">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="263" spans="1:14">
@@ -12946,10 +12946,10 @@
         <v>0</v>
       </c>
       <c r="M263">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N263">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="264" spans="1:14">
@@ -12990,10 +12990,10 @@
         <v>0</v>
       </c>
       <c r="M264">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N264">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="265" spans="1:14">
@@ -13034,10 +13034,10 @@
         <v>0</v>
       </c>
       <c r="M265">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N265">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="266" spans="1:14">
@@ -13078,10 +13078,10 @@
         <v>0</v>
       </c>
       <c r="M266">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N266">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="267" spans="1:14">
@@ -13122,10 +13122,10 @@
         <v>0</v>
       </c>
       <c r="M267">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N267">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="268" spans="1:14">
@@ -13166,10 +13166,10 @@
         <v>0</v>
       </c>
       <c r="M268">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N268">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="269" spans="1:14">
@@ -13210,10 +13210,10 @@
         <v>0</v>
       </c>
       <c r="M269">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N269">
-        <v>17.764</v>
+        <v>13.323</v>
       </c>
     </row>
     <row r="270" spans="1:14">
@@ -13254,10 +13254,10 @@
         <v>0</v>
       </c>
       <c r="M270">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N270">
-        <v>7.96</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="271" spans="1:14">
@@ -13298,10 +13298,10 @@
         <v>0</v>
       </c>
       <c r="M271">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N271">
-        <v>2.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:14">
@@ -13342,10 +13342,10 @@
         <v>0</v>
       </c>
       <c r="M272">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N272">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="273" spans="1:14">
@@ -13386,10 +13386,10 @@
         <v>0</v>
       </c>
       <c r="M273">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N273">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="274" spans="1:14">
@@ -13430,10 +13430,10 @@
         <v>0</v>
       </c>
       <c r="M274">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N274">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="275" spans="1:14">
@@ -13474,10 +13474,10 @@
         <v>0</v>
       </c>
       <c r="M275">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N275">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="276" spans="1:14">
@@ -13518,10 +13518,10 @@
         <v>0</v>
       </c>
       <c r="M276">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N276">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="277" spans="1:14">
@@ -13562,10 +13562,10 @@
         <v>0</v>
       </c>
       <c r="M277">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N277">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="278" spans="1:14">
@@ -13606,10 +13606,10 @@
         <v>0</v>
       </c>
       <c r="M278">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N278">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="279" spans="1:14">
@@ -13650,10 +13650,10 @@
         <v>0</v>
       </c>
       <c r="M279">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N279">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="280" spans="1:14">
@@ -13694,10 +13694,10 @@
         <v>0</v>
       </c>
       <c r="M280">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N280">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="281" spans="1:14">
@@ -13738,10 +13738,10 @@
         <v>0</v>
       </c>
       <c r="M281">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N281">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="282" spans="1:14">
@@ -13782,10 +13782,10 @@
         <v>0</v>
       </c>
       <c r="M282">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N282">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="283" spans="1:14">
@@ -13826,10 +13826,10 @@
         <v>0</v>
       </c>
       <c r="M283">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N283">
-        <v>7.96</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="284" spans="1:14">
@@ -13914,10 +13914,10 @@
         <v>0</v>
       </c>
       <c r="M285">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N285">
-        <v>2.376</v>
+        <v>1.782</v>
       </c>
     </row>
     <row r="286" spans="1:14">
@@ -14134,10 +14134,10 @@
         <v>0</v>
       </c>
       <c r="M290">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N290">
-        <v>18.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:14">
@@ -14178,10 +14178,10 @@
         <v>0</v>
       </c>
       <c r="M291">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N291">
-        <v>2.14</v>
+        <v>65</v>
       </c>
     </row>
     <row r="292" spans="1:14">
@@ -14222,10 +14222,10 @@
         <v>0</v>
       </c>
       <c r="M292">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N292">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="293" spans="1:14">
@@ -14266,10 +14266,10 @@
         <v>0</v>
       </c>
       <c r="M293">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N293">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="294" spans="1:14">
@@ -14310,10 +14310,10 @@
         <v>0</v>
       </c>
       <c r="M294">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N294">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="295" spans="1:14">
@@ -14354,10 +14354,10 @@
         <v>0</v>
       </c>
       <c r="M295">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N295">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="296" spans="1:14">
@@ -14442,10 +14442,10 @@
         <v>0</v>
       </c>
       <c r="M297">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N297">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="298" spans="1:14">
@@ -14486,10 +14486,10 @@
         <v>0</v>
       </c>
       <c r="M298">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N298">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="299" spans="1:14">
@@ -14530,10 +14530,10 @@
         <v>0</v>
       </c>
       <c r="M299">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N299">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="300" spans="1:14">
@@ -14574,10 +14574,10 @@
         <v>0</v>
       </c>
       <c r="M300">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N300">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="301" spans="1:14">
@@ -14618,10 +14618,10 @@
         <v>0</v>
       </c>
       <c r="M301">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N301">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="302" spans="1:14">
@@ -14662,10 +14662,10 @@
         <v>0</v>
       </c>
       <c r="M302">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N302">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="303" spans="1:14">
@@ -14838,10 +14838,10 @@
         <v>0</v>
       </c>
       <c r="M306">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N306">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="307" spans="1:14">
@@ -14882,10 +14882,10 @@
         <v>0</v>
       </c>
       <c r="M307">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N307">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="308" spans="1:14">
@@ -14970,10 +14970,10 @@
         <v>0</v>
       </c>
       <c r="M309">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N309">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="310" spans="1:14">
@@ -15014,10 +15014,10 @@
         <v>0</v>
       </c>
       <c r="M310">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N310">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="311" spans="1:14">
@@ -15058,10 +15058,10 @@
         <v>0</v>
       </c>
       <c r="M311">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N311">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="312" spans="1:14">
@@ -15102,10 +15102,10 @@
         <v>0</v>
       </c>
       <c r="M312">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N312">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="313" spans="1:14">
@@ -15146,10 +15146,10 @@
         <v>0</v>
       </c>
       <c r="M313">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N313">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:14">
@@ -15190,10 +15190,10 @@
         <v>0</v>
       </c>
       <c r="M314">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N314">
-        <v>10.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:14">
@@ -15234,10 +15234,10 @@
         <v>0</v>
       </c>
       <c r="M315">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N315">
-        <v>13.948</v>
+        <v>10.461</v>
       </c>
     </row>
     <row r="316" spans="1:14">
@@ -15278,10 +15278,10 @@
         <v>0</v>
       </c>
       <c r="M316">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N316">
-        <v>0.068</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="317" spans="1:14">
@@ -15322,10 +15322,10 @@
         <v>0</v>
       </c>
       <c r="M317">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N317">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="318" spans="1:14">
@@ -15366,10 +15366,10 @@
         <v>0</v>
       </c>
       <c r="M318">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N318">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="319" spans="1:14">
@@ -15410,10 +15410,10 @@
         <v>0</v>
       </c>
       <c r="M319">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N319">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="320" spans="1:14">
@@ -15454,10 +15454,10 @@
         <v>0</v>
       </c>
       <c r="M320">
-        <v>0.4</v>
+        <v>10</v>
       </c>
       <c r="N320">
-        <v>7.96</v>
+        <v>10</v>
       </c>
     </row>
     <row r="321" spans="1:14">
@@ -15498,10 +15498,10 @@
         <v>0</v>
       </c>
       <c r="M321">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N321">
-        <v>2.14</v>
+        <v>1.605</v>
       </c>
     </row>
     <row r="322" spans="1:14">
@@ -15542,10 +15542,10 @@
         <v>0</v>
       </c>
       <c r="M322">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N322">
-        <v>2.14</v>
+        <v>1.605</v>
       </c>
     </row>
     <row r="323" spans="1:14">
@@ -15586,10 +15586,10 @@
         <v>0</v>
       </c>
       <c r="M323">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N323">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="324" spans="1:14">
@@ -15630,10 +15630,10 @@
         <v>0</v>
       </c>
       <c r="M324">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N324">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="325" spans="1:14">
@@ -15806,10 +15806,10 @@
         <v>0</v>
       </c>
       <c r="M328">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N328">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="329" spans="1:14">
@@ -16026,10 +16026,10 @@
         <v>0</v>
       </c>
       <c r="M333">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N333">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="334" spans="1:14">
@@ -16114,10 +16114,10 @@
         <v>0</v>
       </c>
       <c r="M335">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N335">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="336" spans="1:14">
@@ -16158,10 +16158,10 @@
         <v>0</v>
       </c>
       <c r="M336">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N336">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="337" spans="1:14">
@@ -16202,10 +16202,10 @@
         <v>0</v>
       </c>
       <c r="M337">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N337">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="338" spans="1:14">
@@ -16290,10 +16290,10 @@
         <v>0</v>
       </c>
       <c r="M339">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N339">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="340" spans="1:14">
@@ -16334,10 +16334,10 @@
         <v>0</v>
       </c>
       <c r="M340">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N340">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="341" spans="1:14">
@@ -16378,10 +16378,10 @@
         <v>0</v>
       </c>
       <c r="M341">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N341">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="342" spans="1:14">
@@ -16422,10 +16422,10 @@
         <v>0</v>
       </c>
       <c r="M342">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N342">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="343" spans="1:14">
@@ -16466,10 +16466,10 @@
         <v>0</v>
       </c>
       <c r="M343">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N343">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="344" spans="1:14">
@@ -16510,10 +16510,10 @@
         <v>0</v>
       </c>
       <c r="M344">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N344">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="345" spans="1:14">
@@ -16554,10 +16554,10 @@
         <v>0</v>
       </c>
       <c r="M345">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N345">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="346" spans="1:14">
@@ -16598,10 +16598,10 @@
         <v>0</v>
       </c>
       <c r="M346">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N346">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="347" spans="1:14">
@@ -16642,10 +16642,10 @@
         <v>0</v>
       </c>
       <c r="M347">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N347">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="348" spans="1:14">
@@ -16686,10 +16686,10 @@
         <v>0</v>
       </c>
       <c r="M348">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N348">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="349" spans="1:14">
@@ -16730,10 +16730,10 @@
         <v>0</v>
       </c>
       <c r="M349">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N349">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="350" spans="1:14">
@@ -16774,10 +16774,10 @@
         <v>0</v>
       </c>
       <c r="M350">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N350">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="351" spans="1:14">
@@ -16818,10 +16818,10 @@
         <v>0</v>
       </c>
       <c r="M351">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N351">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="352" spans="1:14">
@@ -16862,10 +16862,10 @@
         <v>0</v>
       </c>
       <c r="M352">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N352">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="353" spans="1:14">
@@ -16906,10 +16906,10 @@
         <v>0</v>
       </c>
       <c r="M353">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N353">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="354" spans="1:14">
@@ -16950,7 +16950,7 @@
         <v>0</v>
       </c>
       <c r="M354">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N354">
         <v>0</v>
@@ -17346,7 +17346,7 @@
         <v>0</v>
       </c>
       <c r="M363">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N363">
         <v>0</v>
@@ -17390,7 +17390,7 @@
         <v>0</v>
       </c>
       <c r="M364">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N364">
         <v>0</v>
@@ -17434,7 +17434,7 @@
         <v>0</v>
       </c>
       <c r="M365">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N365">
         <v>0</v>
@@ -17478,7 +17478,7 @@
         <v>0</v>
       </c>
       <c r="M366">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N366">
         <v>0</v>
@@ -17566,7 +17566,7 @@
         <v>0</v>
       </c>
       <c r="M368">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N368">
         <v>0</v>
@@ -17654,7 +17654,7 @@
         <v>0</v>
       </c>
       <c r="M370">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="N370">
         <v>0</v>
@@ -17918,7 +17918,7 @@
         <v>0</v>
       </c>
       <c r="M376">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N376">
         <v>0</v>
@@ -18094,7 +18094,7 @@
         <v>0</v>
       </c>
       <c r="M380">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N380">
         <v>0</v>
@@ -18138,7 +18138,7 @@
         <v>0</v>
       </c>
       <c r="M381">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N381">
         <v>0</v>
@@ -18402,7 +18402,7 @@
         <v>0</v>
       </c>
       <c r="M387">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N387">
         <v>0</v>
@@ -18490,7 +18490,7 @@
         <v>0</v>
       </c>
       <c r="M389">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N389">
         <v>0</v>
@@ -18578,7 +18578,7 @@
         <v>0</v>
       </c>
       <c r="M391">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N391">
         <v>0</v>
@@ -18710,7 +18710,7 @@
         <v>0</v>
       </c>
       <c r="M394">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N394">
         <v>0</v>
@@ -18754,7 +18754,7 @@
         <v>0</v>
       </c>
       <c r="M395">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N395">
         <v>0</v>
@@ -18798,7 +18798,7 @@
         <v>0</v>
       </c>
       <c r="M396">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N396">
         <v>0</v>
@@ -18842,7 +18842,7 @@
         <v>0</v>
       </c>
       <c r="M397">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="N397">
         <v>0</v>
@@ -18974,7 +18974,7 @@
         <v>0</v>
       </c>
       <c r="M400">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N400">
         <v>0</v>
@@ -19018,7 +19018,7 @@
         <v>0</v>
       </c>
       <c r="M401">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N401">
         <v>0</v>
@@ -19062,7 +19062,7 @@
         <v>0</v>
       </c>
       <c r="M402">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N402">
         <v>0</v>
@@ -19326,7 +19326,7 @@
         <v>0</v>
       </c>
       <c r="M408">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N408">
         <v>0</v>
@@ -19414,7 +19414,7 @@
         <v>0</v>
       </c>
       <c r="M410">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N410">
         <v>0</v>
@@ -19458,7 +19458,7 @@
         <v>0</v>
       </c>
       <c r="M411">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N411">
         <v>0</v>
@@ -19502,7 +19502,7 @@
         <v>0</v>
       </c>
       <c r="M412">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N412">
         <v>0</v>
@@ -19546,7 +19546,7 @@
         <v>0</v>
       </c>
       <c r="M413">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N413">
         <v>0</v>
@@ -19590,7 +19590,7 @@
         <v>0</v>
       </c>
       <c r="M414">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N414">
         <v>0</v>
@@ -19898,7 +19898,7 @@
         <v>0</v>
       </c>
       <c r="M421">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N421">
         <v>0</v>
@@ -19942,7 +19942,7 @@
         <v>0</v>
       </c>
       <c r="M422">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N422">
         <v>0</v>
@@ -20030,7 +20030,7 @@
         <v>0</v>
       </c>
       <c r="M424">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N424">
         <v>0</v>
@@ -20074,7 +20074,7 @@
         <v>0</v>
       </c>
       <c r="M425">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N425">
         <v>0</v>
@@ -20118,7 +20118,7 @@
         <v>0</v>
       </c>
       <c r="M426">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N426">
         <v>0</v>
@@ -20294,7 +20294,7 @@
         <v>0</v>
       </c>
       <c r="M430">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N430">
         <v>0</v>
@@ -20338,7 +20338,7 @@
         <v>0</v>
       </c>
       <c r="M431">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N431">
         <v>0</v>
@@ -20382,7 +20382,7 @@
         <v>0</v>
       </c>
       <c r="M432">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N432">
         <v>0</v>
@@ -20426,7 +20426,7 @@
         <v>0</v>
       </c>
       <c r="M433">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N433">
         <v>0</v>
@@ -20514,10 +20514,10 @@
         <v>0.657143</v>
       </c>
       <c r="M435">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N435">
-        <v>36.2742936</v>
+        <v>48.36572480000001</v>
       </c>
     </row>
     <row r="436" spans="1:14">
@@ -20558,10 +20558,10 @@
         <v>0.164286</v>
       </c>
       <c r="M436">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N436">
-        <v>2.267146799999999</v>
+        <v>3.0228624</v>
       </c>
     </row>
     <row r="437" spans="1:14">
@@ -20778,7 +20778,7 @@
         <v>0</v>
       </c>
       <c r="M441">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N441">
         <v>0</v>
@@ -20910,7 +20910,7 @@
         <v>0</v>
       </c>
       <c r="M444">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N444">
         <v>0</v>
@@ -20998,7 +20998,7 @@
         <v>0</v>
       </c>
       <c r="M446">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N446">
         <v>0</v>
@@ -21042,7 +21042,7 @@
         <v>0</v>
       </c>
       <c r="M447">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N447">
         <v>0</v>
@@ -21086,7 +21086,7 @@
         <v>0</v>
       </c>
       <c r="M448">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N448">
         <v>0</v>
@@ -21130,7 +21130,7 @@
         <v>0</v>
       </c>
       <c r="M449">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N449">
         <v>0</v>
@@ -21218,7 +21218,7 @@
         <v>0</v>
       </c>
       <c r="M451">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N451">
         <v>0</v>
@@ -21262,7 +21262,7 @@
         <v>0</v>
       </c>
       <c r="M452">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N452">
         <v>0</v>
@@ -21306,7 +21306,7 @@
         <v>0</v>
       </c>
       <c r="M453">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N453">
         <v>0</v>
@@ -21702,7 +21702,7 @@
         <v>0</v>
       </c>
       <c r="M462">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N462">
         <v>0</v>
@@ -21746,7 +21746,7 @@
         <v>0</v>
       </c>
       <c r="M463">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N463">
         <v>0</v>
@@ -21790,7 +21790,7 @@
         <v>0</v>
       </c>
       <c r="M464">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N464">
         <v>0</v>
@@ -21966,7 +21966,7 @@
         <v>0</v>
       </c>
       <c r="M468">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N468">
         <v>0</v>
@@ -22186,7 +22186,7 @@
         <v>0</v>
       </c>
       <c r="M473">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N473">
         <v>0</v>
@@ -22274,7 +22274,7 @@
         <v>0</v>
       </c>
       <c r="M475">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N475">
         <v>0</v>
@@ -22318,7 +22318,7 @@
         <v>0</v>
       </c>
       <c r="M476">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N476">
         <v>0</v>
@@ -22450,7 +22450,7 @@
         <v>0</v>
       </c>
       <c r="M479">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N479">
         <v>0</v>
@@ -22494,7 +22494,7 @@
         <v>0</v>
       </c>
       <c r="M480">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N480">
         <v>0</v>
@@ -22538,7 +22538,7 @@
         <v>0</v>
       </c>
       <c r="M481">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N481">
         <v>0</v>
@@ -23154,7 +23154,7 @@
         <v>0</v>
       </c>
       <c r="M495">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N495">
         <v>0</v>
@@ -23198,7 +23198,7 @@
         <v>0</v>
       </c>
       <c r="M496">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N496">
         <v>0</v>
@@ -23242,7 +23242,7 @@
         <v>0</v>
       </c>
       <c r="M497">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N497">
         <v>0</v>
@@ -23286,7 +23286,7 @@
         <v>0</v>
       </c>
       <c r="M498">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N498">
         <v>0</v>
@@ -23462,7 +23462,7 @@
         <v>0</v>
       </c>
       <c r="M502">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N502">
         <v>0</v>
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="M503">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N503">
         <v>0</v>
@@ -23550,7 +23550,7 @@
         <v>0</v>
       </c>
       <c r="M504">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N504">
         <v>0</v>
@@ -23594,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="M505">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N505">
         <v>0</v>
@@ -23638,7 +23638,7 @@
         <v>0</v>
       </c>
       <c r="M506">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N506">
         <v>0</v>
@@ -24254,7 +24254,7 @@
         <v>0</v>
       </c>
       <c r="M520">
-        <v>0.3</v>
+        <v>0.59</v>
       </c>
       <c r="N520">
         <v>0</v>
@@ -24474,7 +24474,7 @@
         <v>0</v>
       </c>
       <c r="M525">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N525">
         <v>0</v>
@@ -24518,7 +24518,7 @@
         <v>0</v>
       </c>
       <c r="M526">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N526">
         <v>0</v>
@@ -24562,7 +24562,7 @@
         <v>0</v>
       </c>
       <c r="M527">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N527">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="M528">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N528">
         <v>0</v>
@@ -24650,7 +24650,7 @@
         <v>0</v>
       </c>
       <c r="M529">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N529">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="M539">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N539">
         <v>0</v>
@@ -25310,7 +25310,7 @@
         <v>0</v>
       </c>
       <c r="M544">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N544">
         <v>0</v>
@@ -25662,10 +25662,10 @@
         <v>0.178571</v>
       </c>
       <c r="M552">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N552">
-        <v>3.57142</v>
+        <v>2.678565</v>
       </c>
     </row>
     <row r="553" spans="1:14">
@@ -25926,7 +25926,7 @@
         <v>0</v>
       </c>
       <c r="M558">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N558">
         <v>0</v>
@@ -25970,7 +25970,7 @@
         <v>0</v>
       </c>
       <c r="M559">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N559">
         <v>0</v>
@@ -26014,7 +26014,7 @@
         <v>0</v>
       </c>
       <c r="M560">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N560">
         <v>0</v>
@@ -26058,7 +26058,7 @@
         <v>0</v>
       </c>
       <c r="M561">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N561">
         <v>0</v>
@@ -26146,7 +26146,7 @@
         <v>0</v>
       </c>
       <c r="M563">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N563">
         <v>0</v>
@@ -26190,7 +26190,7 @@
         <v>0</v>
       </c>
       <c r="M564">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N564">
         <v>0</v>
@@ -26234,7 +26234,7 @@
         <v>0</v>
       </c>
       <c r="M565">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N565">
         <v>0</v>
@@ -26498,7 +26498,7 @@
         <v>0</v>
       </c>
       <c r="M571">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N571">
         <v>0</v>
@@ -26806,7 +26806,7 @@
         <v>0</v>
       </c>
       <c r="M578">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N578">
         <v>0</v>
@@ -27070,7 +27070,7 @@
         <v>0</v>
       </c>
       <c r="M584">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N584">
         <v>0</v>
@@ -27202,7 +27202,7 @@
         <v>0</v>
       </c>
       <c r="M587">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N587">
         <v>0</v>
@@ -27246,7 +27246,7 @@
         <v>0</v>
       </c>
       <c r="M588">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N588">
         <v>0</v>
@@ -27290,7 +27290,7 @@
         <v>0</v>
       </c>
       <c r="M589">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N589">
         <v>0</v>
@@ -27466,7 +27466,7 @@
         <v>0</v>
       </c>
       <c r="M593">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N593">
         <v>0</v>
@@ -27510,7 +27510,7 @@
         <v>0</v>
       </c>
       <c r="M594">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N594">
         <v>0</v>
@@ -27730,7 +27730,7 @@
         <v>0</v>
       </c>
       <c r="M599">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N599">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>0</v>
       </c>
       <c r="M600">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N600">
         <v>0</v>
@@ -28170,7 +28170,7 @@
         <v>0</v>
       </c>
       <c r="M609">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N609">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="M614">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N614">
         <v>0</v>
@@ -28434,7 +28434,7 @@
         <v>0</v>
       </c>
       <c r="M615">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N615">
         <v>0</v>
@@ -28654,7 +28654,7 @@
         <v>0</v>
       </c>
       <c r="M620">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N620">
         <v>0</v>
@@ -28698,7 +28698,7 @@
         <v>0</v>
       </c>
       <c r="M621">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N621">
         <v>0</v>
@@ -28742,7 +28742,7 @@
         <v>0</v>
       </c>
       <c r="M622">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N622">
         <v>0</v>
@@ -28786,7 +28786,7 @@
         <v>0</v>
       </c>
       <c r="M623">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N623">
         <v>0</v>
@@ -28830,7 +28830,7 @@
         <v>0</v>
       </c>
       <c r="M624">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N624">
         <v>0</v>
@@ -29226,7 +29226,7 @@
         <v>0</v>
       </c>
       <c r="M633">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N633">
         <v>0</v>
@@ -29314,7 +29314,7 @@
         <v>0</v>
       </c>
       <c r="M635">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N635">
         <v>0</v>
@@ -29402,7 +29402,7 @@
         <v>0</v>
       </c>
       <c r="M637">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N637">
         <v>0</v>
@@ -29446,7 +29446,7 @@
         <v>0</v>
       </c>
       <c r="M638">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N638">
         <v>0</v>
@@ -29490,7 +29490,7 @@
         <v>0</v>
       </c>
       <c r="M639">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N639">
         <v>0</v>
@@ -29974,7 +29974,7 @@
         <v>0</v>
       </c>
       <c r="M650">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N650">
         <v>0</v>
@@ -30018,7 +30018,7 @@
         <v>0</v>
       </c>
       <c r="M651">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N651">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="M656">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N656">
         <v>0</v>
@@ -30282,7 +30282,7 @@
         <v>0</v>
       </c>
       <c r="M657">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N657">
         <v>0</v>
@@ -30326,7 +30326,7 @@
         <v>0</v>
       </c>
       <c r="M658">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N658">
         <v>0</v>
@@ -31382,7 +31382,7 @@
         <v>0</v>
       </c>
       <c r="M682">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N682">
         <v>0</v>
@@ -31734,7 +31734,7 @@
         <v>0</v>
       </c>
       <c r="M690">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N690">
         <v>0</v>
@@ -31998,7 +31998,7 @@
         <v>0</v>
       </c>
       <c r="M696">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N696">
         <v>0</v>
@@ -32042,7 +32042,7 @@
         <v>0</v>
       </c>
       <c r="M697">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N697">
         <v>0</v>
@@ -32262,7 +32262,7 @@
         <v>0</v>
       </c>
       <c r="M702">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N702">
         <v>0</v>
@@ -32306,7 +32306,7 @@
         <v>0</v>
       </c>
       <c r="M703">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N703">
         <v>0</v>
@@ -32350,7 +32350,7 @@
         <v>0</v>
       </c>
       <c r="M704">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N704">
         <v>0</v>
@@ -32526,7 +32526,7 @@
         <v>0</v>
       </c>
       <c r="M708">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N708">
         <v>0</v>
@@ -32570,7 +32570,7 @@
         <v>0</v>
       </c>
       <c r="M709">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N709">
         <v>0</v>
@@ -32614,7 +32614,7 @@
         <v>0</v>
       </c>
       <c r="M710">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N710">
         <v>0</v>
@@ -32834,7 +32834,7 @@
         <v>0</v>
       </c>
       <c r="M715">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N715">
         <v>0</v>
@@ -32878,7 +32878,7 @@
         <v>0</v>
       </c>
       <c r="M716">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N716">
         <v>0</v>
@@ -32922,7 +32922,7 @@
         <v>0</v>
       </c>
       <c r="M717">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N717">
         <v>0</v>
@@ -32966,7 +32966,7 @@
         <v>0</v>
       </c>
       <c r="M718">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N718">
         <v>0</v>
@@ -33010,7 +33010,7 @@
         <v>0</v>
       </c>
       <c r="M719">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N719">
         <v>0</v>
@@ -33098,7 +33098,7 @@
         <v>0</v>
       </c>
       <c r="M721">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N721">
         <v>0</v>
@@ -33494,7 +33494,7 @@
         <v>0</v>
       </c>
       <c r="M730">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N730">
         <v>0</v>
@@ -33670,7 +33670,7 @@
         <v>0</v>
       </c>
       <c r="M734">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N734">
         <v>0</v>
@@ -33714,7 +33714,7 @@
         <v>0</v>
       </c>
       <c r="M735">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N735">
         <v>0</v>
@@ -33758,7 +33758,7 @@
         <v>0</v>
       </c>
       <c r="M736">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N736">
         <v>0</v>
@@ -33846,7 +33846,7 @@
         <v>0</v>
       </c>
       <c r="M738">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N738">
         <v>0</v>
@@ -33934,7 +33934,7 @@
         <v>0</v>
       </c>
       <c r="M740">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N740">
         <v>0</v>
@@ -34022,7 +34022,7 @@
         <v>0</v>
       </c>
       <c r="M742">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N742">
         <v>0</v>
@@ -34946,7 +34946,7 @@
         <v>0</v>
       </c>
       <c r="M763">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N763">
         <v>0</v>
@@ -35694,7 +35694,7 @@
         <v>0</v>
       </c>
       <c r="M780">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N780">
         <v>0</v>
@@ -35738,7 +35738,7 @@
         <v>0</v>
       </c>
       <c r="M781">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N781">
         <v>0</v>
@@ -35914,7 +35914,7 @@
         <v>0</v>
       </c>
       <c r="M785">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N785">
         <v>0</v>
@@ -36090,7 +36090,7 @@
         <v>0</v>
       </c>
       <c r="M789">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N789">
         <v>0</v>
@@ -36134,7 +36134,7 @@
         <v>0</v>
       </c>
       <c r="M790">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N790">
         <v>0</v>
@@ -36398,7 +36398,7 @@
         <v>0</v>
       </c>
       <c r="M796">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N796">
         <v>0</v>
@@ -36442,7 +36442,7 @@
         <v>0</v>
       </c>
       <c r="M797">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N797">
         <v>0</v>
@@ -36706,7 +36706,7 @@
         <v>0</v>
       </c>
       <c r="M803">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N803">
         <v>0</v>
@@ -36882,7 +36882,7 @@
         <v>0</v>
       </c>
       <c r="M807">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N807">
         <v>0</v>
@@ -36926,7 +36926,7 @@
         <v>0</v>
       </c>
       <c r="M808">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N808">
         <v>0</v>
@@ -36970,7 +36970,7 @@
         <v>0</v>
       </c>
       <c r="M809">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N809">
         <v>0</v>
